--- a/Control Store/24-line control store without bonus.xlsx
+++ b/Control Store/24-line control store without bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedAhmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karashily\Desktop\Arch Project\Control Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58107E3A-E856-4653-AB98-72360714561C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11589788-583F-47B5-A9C9-F97753AF63A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="79">
-  <si>
-    <t>add in control store</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>fetch src Auto Increment "start"</t>
   </si>
@@ -296,17 +293,26 @@
   </si>
   <si>
     <t>wide-branch</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Microinstructions</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,8 +342,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,24 +360,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -371,37 +373,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,462 +706,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="55.09765625" customWidth="1"/>
-    <col min="3" max="3" width="56.19921875" customWidth="1"/>
-    <col min="4" max="4" width="69" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>15</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>16</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>17</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.93283564814814823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>21</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>22</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>23</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>24</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.47291666666666665</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0.93283564814814823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>31</v>
       </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>33</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9">
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
         <v>36</v>
       </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="D33" s="9">
+      <c r="B33" s="6"/>
+      <c r="D33" s="5">
         <v>16</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -1146,7 +1197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>40</v>
       </c>
@@ -1155,7 +1206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>41</v>
       </c>
@@ -1164,7 +1215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>42</v>
       </c>
@@ -1173,110 +1224,110 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="8" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="8" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
       <c r="C55" t="s">
         <v>55</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C60" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
       <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>